--- a/static/data/Comments.xlsx
+++ b/static/data/Comments.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iceline\Desktop\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\database_project\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08592C6-7B72-416C-85BB-CFB3058E926E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658C7A4E-19E4-4F94-8901-55E6249D2A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11340" yWindow="1620" windowWidth="10008" windowHeight="10596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2388" yWindow="4380" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,11 +43,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>给了6分，1分是溢出来的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真的吗？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,65 +379,57 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="13.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
         <v>14</v>
       </c>
-      <c r="C2" s="1">
-        <v>21307177</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
         <v>25</v>
-      </c>
-      <c r="C3" s="1">
-        <v>21307177</v>
-      </c>
-      <c r="D3" s="1">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
